--- a/static/NCR_RAI_LIBERAR.xlsx
+++ b/static/NCR_RAI_LIBERAR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NCR_RAI_LIBERAR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NCR_RAI_LIBERAR" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RAI-SBR1-04837-CCO</t>
+          <t>RAI-SBR2-01728-319698</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RAI-SBR1-04962-200575</t>
+          <t>RAI-SBR2-03198-330663</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RAI-SBR2-03094-319749</t>
+          <t>RAI-SBR2-03289-200526</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -485,178 +485,10 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RAI-SBR2-03130-200494</t>
+          <t>RAI-SBR2-03308-321696</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03131-200712</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03132-200542</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03146-CCO</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03187-200717</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03203-345282</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03283-200229</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03299-330663</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03301-200560</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03309-200712</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03320-319731</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03326-CCO</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03333-319721</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03339-CAB</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Liberar RAI_NCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>RAI-SBR2-03395-200542</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>Liberar RAI_NCR</t>
         </is>
